--- a/plan/customer_segmentation_project_plan.xlsx
+++ b/plan/customer_segmentation_project_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shouv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\customer_segmentation\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF7818-DE64-4B7F-88F1-40F2710C6136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBE15AB-FE6F-4B8D-888D-9095EEA8EE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{DE87A1D0-3C0A-4438-94B9-0DC496666B4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE87A1D0-3C0A-4438-94B9-0DC496666B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="295">
   <si>
     <t>PHASE</t>
   </si>
@@ -1122,12 +1122,42 @@
   <si>
     <t>5. Build an effective, easy-to-operate marketing automation and orchestration engine that supports multi-channel enviornment at scale.</t>
   </si>
+  <si>
+    <t>Proof of concept</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>20-21</t>
+  </si>
+  <si>
+    <t>13-19</t>
+  </si>
+  <si>
+    <t>aws solution</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>18th marketing give a list of companies which could use solution</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,6 +1317,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF3D4251"/>
+      <name val="Lato"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1902,7 +1939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2066,38 +2103,34 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2180,29 +2213,44 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2294,11 +2342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11060,28 +11103,28 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="68"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="99"/>
     </row>
     <row r="8" spans="2:29" ht="16.2">
       <c r="B8" s="4"/>
@@ -11092,34 +11135,34 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69" t="s">
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69" t="s">
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69" t="s">
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
     </row>
     <row r="9" spans="2:29" ht="15.6">
       <c r="B9" s="4"/>
@@ -11198,19 +11241,19 @@
       </c>
     </row>
     <row r="10" spans="2:29" ht="15.6">
-      <c r="B10" s="59">
+      <c r="B10" s="101">
         <v>1</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="62" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="63"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
@@ -11234,15 +11277,15 @@
       <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="2:29" ht="22.8" customHeight="1">
-      <c r="B11" s="59"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="62" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
@@ -11266,15 +11309,15 @@
       <c r="AC11" s="13"/>
     </row>
     <row r="12" spans="2:29" ht="22.8" customHeight="1" thickBot="1">
-      <c r="B12" s="59"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="64" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="65"/>
+      <c r="H12" s="107"/>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13"/>
@@ -11600,19 +11643,19 @@
       <c r="AC21" s="13"/>
     </row>
     <row r="22" spans="2:29" ht="22.8" customHeight="1">
-      <c r="B22" s="97">
+      <c r="B22" s="63">
         <v>5</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="100" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="101"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="23"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -11636,13 +11679,13 @@
       <c r="AC22" s="13"/>
     </row>
     <row r="23" spans="2:29" ht="15.6">
-      <c r="B23" s="97"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="22"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -11666,13 +11709,13 @@
       <c r="AC23" s="13"/>
     </row>
     <row r="24" spans="2:29" ht="15.6">
-      <c r="B24" s="97"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="22"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -11697,11 +11740,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:F24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J7:AC7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="G20:H20"/>
@@ -11717,16 +11765,11 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J7:AC7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:F24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11737,7 +11780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08457F6C-CB70-46AC-8232-AB2E4C72490C}">
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -12033,6 +12076,11 @@
     <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -12119,7 +12167,7 @@
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" ht="43.2">
-      <c r="A6" s="104">
+      <c r="A6" s="108">
         <v>44150</v>
       </c>
       <c r="B6" s="41" t="s">
@@ -12130,7 +12178,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="104"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="41" t="s">
         <v>249</v>
       </c>
@@ -12139,7 +12187,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="104"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="41" t="s">
         <v>248</v>
       </c>
@@ -12159,7 +12207,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="104">
+      <c r="A10" s="108">
         <v>44152</v>
       </c>
       <c r="B10" s="57" t="s">
@@ -12170,7 +12218,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="104"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="57" t="s">
         <v>261</v>
       </c>
@@ -12179,7 +12227,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="104"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="57" t="s">
         <v>262</v>
       </c>
@@ -12188,7 +12236,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="104"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="41" t="s">
         <v>263</v>
       </c>
@@ -12197,7 +12245,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="104"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="57" t="s">
         <v>81</v>
       </c>
@@ -12215,10 +12263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB45E177-64B6-4612-A1EA-BE60F3F42BFC}">
-  <dimension ref="A59:L104"/>
+  <dimension ref="A59:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:A93"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G108" sqref="A108:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12231,312 +12279,312 @@
   <sheetData>
     <row r="59" spans="1:11" ht="15" thickBot="1"/>
     <row r="60" spans="1:11">
-      <c r="B60" s="105" t="s">
+      <c r="B60" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="107"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="112"/>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1">
-      <c r="B61" s="108"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="110"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1"/>
     <row r="63" spans="1:11">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="B63" s="123" t="s">
+      <c r="B63" s="128" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="125"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
+      <c r="K63" s="130"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="112"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="128"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="133"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="112"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="128"/>
+      <c r="A65" s="117"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="132"/>
+      <c r="G65" s="132"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="133"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="112"/>
-      <c r="B66" s="126"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="128"/>
+      <c r="A66" s="117"/>
+      <c r="B66" s="131"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="132"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="133"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="112"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="127"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="128"/>
+      <c r="A67" s="117"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="133"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="112"/>
-      <c r="B68" s="126"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="128"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="133"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="112"/>
-      <c r="B69" s="126"/>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="128"/>
+      <c r="A69" s="117"/>
+      <c r="B69" s="131"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="132"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="133"/>
     </row>
     <row r="70" spans="1:11" ht="105" customHeight="1" thickBot="1">
-      <c r="A70" s="113"/>
-      <c r="B70" s="129"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="131"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="135"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="135"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="135"/>
+      <c r="I70" s="135"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="136"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1"/>
     <row r="73" spans="1:11" ht="15" thickBot="1">
-      <c r="B73" s="132" t="s">
+      <c r="B73" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="C73" s="133"/>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="134"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="139"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="B74" s="114" t="s">
+      <c r="B74" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="116"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="121"/>
     </row>
     <row r="75" spans="1:11" ht="11.4" customHeight="1">
-      <c r="B75" s="117"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="119"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="124"/>
     </row>
     <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1">
-      <c r="B76" s="117"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="118"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="119"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="123"/>
+      <c r="F76" s="123"/>
+      <c r="G76" s="124"/>
     </row>
     <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1">
-      <c r="B77" s="117"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="119"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="123"/>
+      <c r="G77" s="124"/>
     </row>
     <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1">
-      <c r="B78" s="117"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="124"/>
     </row>
     <row r="79" spans="1:11" ht="135" customHeight="1" thickBot="1">
-      <c r="B79" s="120"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
-      <c r="E79" s="121"/>
-      <c r="F79" s="121"/>
-      <c r="G79" s="122"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="127"/>
     </row>
     <row r="82" spans="1:12" ht="15" thickBot="1"/>
     <row r="83" spans="1:12">
-      <c r="B83" s="105" t="s">
+      <c r="B83" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="C83" s="106"/>
-      <c r="D83" s="106"/>
-      <c r="E83" s="107"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="112"/>
     </row>
     <row r="84" spans="1:12" ht="15" thickBot="1">
-      <c r="B84" s="108"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="110"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="115"/>
     </row>
     <row r="85" spans="1:12" ht="15" thickBot="1"/>
     <row r="86" spans="1:12">
-      <c r="A86" s="111" t="s">
+      <c r="A86" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="B86" s="114" t="s">
+      <c r="B86" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="115"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="116"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
+      <c r="J86" s="120"/>
+      <c r="K86" s="121"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="112"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="118"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="118"/>
-      <c r="H87" s="118"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="118"/>
-      <c r="K87" s="119"/>
+      <c r="A87" s="117"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="123"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="123"/>
+      <c r="G87" s="123"/>
+      <c r="H87" s="123"/>
+      <c r="I87" s="123"/>
+      <c r="J87" s="123"/>
+      <c r="K87" s="124"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="112"/>
-      <c r="B88" s="117"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="118"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="119"/>
+      <c r="A88" s="117"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="123"/>
+      <c r="H88" s="123"/>
+      <c r="I88" s="123"/>
+      <c r="J88" s="123"/>
+      <c r="K88" s="124"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="112"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="118"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
-      <c r="K89" s="119"/>
+      <c r="A89" s="117"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="123"/>
+      <c r="D89" s="123"/>
+      <c r="E89" s="123"/>
+      <c r="F89" s="123"/>
+      <c r="G89" s="123"/>
+      <c r="H89" s="123"/>
+      <c r="I89" s="123"/>
+      <c r="J89" s="123"/>
+      <c r="K89" s="124"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="112"/>
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="118"/>
-      <c r="I90" s="118"/>
-      <c r="J90" s="118"/>
-      <c r="K90" s="119"/>
+      <c r="A90" s="117"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
+      <c r="E90" s="123"/>
+      <c r="F90" s="123"/>
+      <c r="G90" s="123"/>
+      <c r="H90" s="123"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="123"/>
+      <c r="K90" s="124"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="112"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="118"/>
-      <c r="D91" s="118"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="118"/>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="119"/>
+      <c r="A91" s="117"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="123"/>
+      <c r="D91" s="123"/>
+      <c r="E91" s="123"/>
+      <c r="F91" s="123"/>
+      <c r="G91" s="123"/>
+      <c r="H91" s="123"/>
+      <c r="I91" s="123"/>
+      <c r="J91" s="123"/>
+      <c r="K91" s="124"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="112"/>
-      <c r="B92" s="117"/>
-      <c r="C92" s="118"/>
-      <c r="D92" s="118"/>
-      <c r="E92" s="118"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="118"/>
-      <c r="H92" s="118"/>
-      <c r="I92" s="118"/>
-      <c r="J92" s="118"/>
-      <c r="K92" s="119"/>
+      <c r="A92" s="117"/>
+      <c r="B92" s="122"/>
+      <c r="C92" s="123"/>
+      <c r="D92" s="123"/>
+      <c r="E92" s="123"/>
+      <c r="F92" s="123"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="123"/>
+      <c r="J92" s="123"/>
+      <c r="K92" s="124"/>
     </row>
     <row r="93" spans="1:12" ht="15" thickBot="1">
-      <c r="A93" s="113"/>
-      <c r="B93" s="120"/>
-      <c r="C93" s="121"/>
-      <c r="D93" s="121"/>
-      <c r="E93" s="121"/>
-      <c r="F93" s="121"/>
-      <c r="G93" s="121"/>
-      <c r="H93" s="121"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="121"/>
-      <c r="K93" s="122"/>
+      <c r="A93" s="118"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="126"/>
+      <c r="D93" s="126"/>
+      <c r="E93" s="126"/>
+      <c r="F93" s="126"/>
+      <c r="G93" s="126"/>
+      <c r="H93" s="126"/>
+      <c r="I93" s="126"/>
+      <c r="J93" s="126"/>
+      <c r="K93" s="127"/>
     </row>
     <row r="96" spans="1:12">
       <c r="B96" t="s">
@@ -12562,18 +12610,18 @@
       <c r="L97" s="41"/>
     </row>
     <row r="98" spans="2:12">
-      <c r="B98" s="137" t="s">
+      <c r="B98" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="137"/>
-      <c r="D98" s="137"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
       <c r="J98" s="41" t="s">
         <v>277</v>
       </c>
       <c r="K98" s="41">
         <v>100</v>
       </c>
-      <c r="L98" s="135">
+      <c r="L98" s="59">
         <v>100</v>
       </c>
     </row>
@@ -12583,26 +12631,29 @@
       </c>
     </row>
     <row r="100" spans="2:12">
-      <c r="B100" s="137" t="s">
+      <c r="B100" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="C100" s="137"/>
-      <c r="D100" s="137"/>
-      <c r="E100" s="137"/>
-      <c r="F100" s="137"/>
-      <c r="G100" s="137"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
     </row>
     <row r="101" spans="2:12">
-      <c r="J101" s="136" t="s">
+      <c r="J101" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="K101" s="136"/>
-      <c r="L101" s="136"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="109"/>
     </row>
     <row r="104" spans="2:12">
       <c r="B104" t="s">
         <v>284</v>
       </c>
+    </row>
+    <row r="108" spans="2:12" ht="30">
+      <c r="B108" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13858,15 +13909,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EF2B0-A7CF-430B-BF18-E74B9B014D4B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13882,7 +13934,48 @@
         <v>254</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="50.4" customHeight="1">
+      <c r="A8" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>